--- a/data/input/absenteeism_data_27.xlsx
+++ b/data/input/absenteeism_data_27.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5777</v>
+        <v>87696</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diogo Costela</t>
+          <t>Gabriela Peixoto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>3034.42</v>
+        <v>4046.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60308</v>
+        <v>43661</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Guilherme Castro</t>
+          <t>Cauã da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,60 +519,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>3062.5</v>
+        <v>4178.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98114</v>
+        <v>6063</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Breno Campos</t>
+          <t>Ana Júlia da Rosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>3081.88</v>
+        <v>6145.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70930</v>
+        <v>39448</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sabrina Cavalcanti</t>
+          <t>Sophia Viana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,172 +581,172 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>6364.36</v>
+        <v>10434.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23984</v>
+        <v>20097</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lucas da Cunha</t>
+          <t>Camila Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>3585.44</v>
+        <v>7294.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40491</v>
+        <v>90626</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Raul Fernandes</t>
+          <t>Rafael Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45091</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>3597.04</v>
+        <v>8708.360000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>87512</v>
+        <v>96695</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Theo Souza</t>
+          <t>Nathan Barros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>9446.549999999999</v>
+        <v>11772.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51161</v>
+        <v>39170</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Murilo da Conceição</t>
+          <t>Kevin da Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>11848.47</v>
+        <v>5022.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44389</v>
+        <v>11102</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Guilherme da Luz</t>
+          <t>Sabrina Nascimento</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>9290.120000000001</v>
+        <v>11625.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40974</v>
+        <v>47568</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Correia</t>
+          <t>Dr. Luiz Gustavo Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -758,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>2573.73</v>
+        <v>12326.19</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_27.xlsx
+++ b/data/input/absenteeism_data_27.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87696</v>
+        <v>23767</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabriela Peixoto</t>
+          <t>Paulo Pinto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>4046.88</v>
+        <v>3376.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43661</v>
+        <v>73215</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cauã da Mota</t>
+          <t>Caio Silva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>4178.95</v>
+        <v>6376.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6063</v>
+        <v>69601</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Júlia da Rosa</t>
+          <t>Henrique Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>6145.04</v>
+        <v>3764.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39448</v>
+        <v>5428</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sophia Viana</t>
+          <t>Sr. Luiz Henrique Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>10434.8</v>
+        <v>11529.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20097</v>
+        <v>27435</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camila Rodrigues</t>
+          <t>Benício Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,22 +610,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>7294.41</v>
+        <v>7186.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90626</v>
+        <v>27897</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafael Ribeiro</t>
+          <t>Ana Nogueira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,126 +642,126 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>8708.360000000001</v>
+        <v>11211.77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96695</v>
+        <v>15784</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nathan Barros</t>
+          <t>Marina Nogueira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>11772.59</v>
+        <v>11921.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39170</v>
+        <v>69625</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kevin da Cunha</t>
+          <t>Alana da Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>5022.01</v>
+        <v>12309.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11102</v>
+        <v>20697</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sabrina Nascimento</t>
+          <t>Vitor Gabriel Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>11625.68</v>
+        <v>7230.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>47568</v>
+        <v>19909</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Luiz Gustavo Cardoso</t>
+          <t>Marcela Castro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>12326.19</v>
+        <v>4695.45</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_27.xlsx
+++ b/data/input/absenteeism_data_27.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23767</v>
+        <v>37052</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paulo Pinto</t>
+          <t>Rebeca Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>3376.59</v>
+        <v>9195.879999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73215</v>
+        <v>20295</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caio Silva</t>
+          <t>Juan da Luz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,201 +523,201 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>6376.37</v>
+        <v>11601.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69601</v>
+        <v>1853</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henrique Costa</t>
+          <t>Gabriela da Conceição</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>3764.24</v>
+        <v>7179.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5428</v>
+        <v>54123</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Luiz Henrique Rezende</t>
+          <t>Guilherme da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>11529.19</v>
+        <v>6968.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27435</v>
+        <v>44435</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benício Nogueira</t>
+          <t>Dr. Luiz Gustavo Silveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>7186.06</v>
+        <v>10900.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27897</v>
+        <v>87564</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Nogueira</t>
+          <t>Benício Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>11211.77</v>
+        <v>11283.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15784</v>
+        <v>91914</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marina Nogueira</t>
+          <t>Sr. Alexandre da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>11921.97</v>
+        <v>9120.440000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69625</v>
+        <v>34137</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alana da Rocha</t>
+          <t>Helena Freitas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>12309.06</v>
+        <v>5306.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20697</v>
+        <v>25990</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Melo</t>
+          <t>Laís Ribeiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>7230.78</v>
+        <v>9806.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19909</v>
+        <v>50276</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcela Castro</t>
+          <t>Lucas Cavalcanti</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>4695.45</v>
+        <v>8048.08</v>
       </c>
     </row>
   </sheetData>
